--- a/config/configMeanRevertPortEOD.xlsx
+++ b/config/configMeanRevertPortEOD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TWS" sheetId="1" state="visible" r:id="rId2"/>
@@ -399,11 +399,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
@@ -476,10 +476,10 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.89"/>
@@ -1308,7 +1308,7 @@
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1344,11 +1344,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.28"/>
   </cols>
@@ -1374,7 +1374,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,7 +1414,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1446,7 +1446,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/config/configMeanRevertPortEOD.xlsx
+++ b/config/configMeanRevertPortEOD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TWS" sheetId="1" state="visible" r:id="rId2"/>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">lookback</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Y</t>
+    <t xml:space="preserve">260 D</t>
   </si>
   <si>
     <t xml:space="preserve">interval</t>
@@ -403,7 +403,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
@@ -479,7 +479,7 @@
       <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.89"/>
@@ -1304,11 +1304,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1344,11 +1344,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.28"/>
   </cols>
